--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\Documents\Mosip\Guinea\Master-data_Mosip1.2._FINAL\Master-data_Mosip1.2._FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909EB4D4-0FC0-45CB-829A-EAE0EF7DAE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B941F-5468-4239-83FC-D4929B4BA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6312" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
   <si>
     <t>lang_code</t>
   </si>
@@ -52,15 +52,6 @@
     <t>Jour de l'an</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Fête de Ramadan</t>
-  </si>
-  <si>
-    <t>Fête du travail</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anniversaire de l'Union Africaine </t>
   </si>
   <si>
@@ -73,13 +64,43 @@
     <t>Maouloud</t>
   </si>
   <si>
-    <t>Fête de l'indépendance</t>
-  </si>
-  <si>
     <t>Jour de Noel</t>
   </si>
   <si>
     <t>GN</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>FÃªte de Ramadan</t>
+  </si>
+  <si>
+    <t>FÃªte du travail</t>
+  </si>
+  <si>
+    <t>FÃªte de l'indÃ©pendance</t>
   </si>
 </sst>
 </file>
@@ -577,11 +598,10 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,250 +930,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="39.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="39.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>2000001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44927</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45037</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45071</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>2000002</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45037</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>2000003</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45047</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2000007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>2000004</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45071</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2000008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>2000005</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45107</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45285</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2000006</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45153</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2000007</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45196</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2000008</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45201</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2000009</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45285</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45079.578207870371</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B941F-5468-4239-83FC-D4929B4BA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F0CDE-BB06-40AD-BB2B-7C7177053ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>lang_code</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>FÃªte de l'indÃ©pendance</t>
+  </si>
+  <si>
+    <t>Guinea day</t>
   </si>
 </sst>
 </file>
@@ -930,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,6 +1359,47 @@
         <v>22</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45567</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45224.547017106481</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
